--- a/Ergebnisse für Opencage.xlsx
+++ b/Ergebnisse für Opencage.xlsx
@@ -1954,13 +1954,13 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="M2" s="1">
         <f>COUNTIF(I2:I1001,"&lt;=20")</f>
-        <v>610</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2048,20 +2048,20 @@
         <v>47.373550450000003</v>
       </c>
       <c r="G3">
-        <v>8.4227600999999996</v>
+        <v>8.4234995999999995</v>
       </c>
       <c r="H3">
-        <v>47.391131999999999</v>
+        <v>47.390880000000003</v>
       </c>
       <c r="I3">
-        <v>3447.36</v>
+        <v>3363.8</v>
       </c>
       <c r="L3" t="s">
         <v>377</v>
       </c>
       <c r="M3" s="2">
         <f>COUNT(I2:I1001)-COUNTIF(I2:I1001,"&lt;=20")-COUNTIF(I2:I1001,"&gt;100")</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="M4" s="3">
         <f>COUNTIF(I2:I1001,"&gt;100")</f>
-        <v>307</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2120,13 +2120,13 @@
         <v>47.374461119999999</v>
       </c>
       <c r="G5">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H5">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I5">
-        <v>7854.68</v>
+        <v>561.20000000000005</v>
       </c>
       <c r="L5" t="s">
         <v>379</v>
@@ -2185,13 +2185,13 @@
         <v>47.396477869999998</v>
       </c>
       <c r="G7">
-        <v>8.8207426000000009</v>
+        <v>8.6849862000000009</v>
       </c>
       <c r="H7">
-        <v>47.312699100000003</v>
+        <v>47.432865499999998</v>
       </c>
       <c r="I7">
-        <v>42390.55</v>
+        <v>26580.14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2359,13 +2359,13 @@
         <v>47.372563679999999</v>
       </c>
       <c r="G13">
-        <v>8.4468326999999999</v>
+        <v>8.4462808999999996</v>
       </c>
       <c r="H13">
-        <v>47.373871800000003</v>
+        <v>47.375092799999997</v>
       </c>
       <c r="I13">
-        <v>331.79</v>
+        <v>455.26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2388,13 +2388,13 @@
         <v>47.372531250000002</v>
       </c>
       <c r="G14">
-        <v>8.4468326999999999</v>
+        <v>8.4462808999999996</v>
       </c>
       <c r="H14">
-        <v>47.373871800000003</v>
+        <v>47.375092799999997</v>
       </c>
       <c r="I14">
-        <v>354.56</v>
+        <v>476.17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2475,13 +2475,13 @@
         <v>47.374807480000001</v>
       </c>
       <c r="G17">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H17">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I17">
-        <v>7934.47</v>
+        <v>479.03</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2504,13 +2504,13 @@
         <v>47.3740649</v>
       </c>
       <c r="G18">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H18">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I18">
-        <v>7976.56</v>
+        <v>439.31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2533,13 +2533,13 @@
         <v>47.394305559999999</v>
       </c>
       <c r="G19">
-        <v>8.5246113000000001</v>
+        <v>8.4491639999999997</v>
       </c>
       <c r="H19">
-        <v>47.314109799999997</v>
+        <v>47.394265400000002</v>
       </c>
       <c r="I19">
-        <v>12173.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2649,13 +2649,13 @@
         <v>47.39746976</v>
       </c>
       <c r="G23">
-        <v>8.6410280000000004</v>
+        <v>8.4743993</v>
       </c>
       <c r="H23">
-        <v>47.694240999999998</v>
+        <v>47.512886299999998</v>
       </c>
       <c r="I23">
-        <v>39010.17</v>
+        <v>13008.43</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2678,13 +2678,13 @@
         <v>47.397999509999998</v>
       </c>
       <c r="G24">
-        <v>8.4545995000000005</v>
+        <v>8.4352298999999995</v>
       </c>
       <c r="H24">
-        <v>47.411657699999999</v>
+        <v>47.356793199999998</v>
       </c>
       <c r="I24">
-        <v>1598.67</v>
+        <v>4810.7299999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2707,13 +2707,13 @@
         <v>47.397335630000001</v>
       </c>
       <c r="G25">
-        <v>8.4494404000000003</v>
+        <v>8.4500694999999997</v>
       </c>
       <c r="H25">
-        <v>47.396812500000003</v>
+        <v>47.397315300000002</v>
       </c>
       <c r="I25">
-        <v>90.06</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2765,13 +2765,13 @@
         <v>47.400802110000001</v>
       </c>
       <c r="G27">
-        <v>8.5644300999999992</v>
+        <v>8.4511813999999994</v>
       </c>
       <c r="H27">
-        <v>47.371734600000003</v>
+        <v>47.400830399999997</v>
       </c>
       <c r="I27">
-        <v>13113.7</v>
+        <v>121.29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2910,13 +2910,13 @@
         <v>47.406164820000001</v>
       </c>
       <c r="G32">
-        <v>8.5305745999999996</v>
+        <v>8.4487640000000006</v>
       </c>
       <c r="H32">
-        <v>47.385396100000001</v>
+        <v>47.4059083</v>
       </c>
       <c r="I32">
-        <v>9289.86</v>
+        <v>99.36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2968,13 +2968,13 @@
         <v>47.411868839999997</v>
       </c>
       <c r="G34">
-        <v>8.4521999999999995</v>
+        <v>8.4504620999999993</v>
       </c>
       <c r="H34">
-        <v>47.411670000000001</v>
+        <v>47.411879200000001</v>
       </c>
       <c r="I34">
-        <v>195.47</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3026,13 +3026,13 @@
         <v>47.413429639999997</v>
       </c>
       <c r="G36">
-        <v>8.5285946999999993</v>
+        <v>8.4498549000000001</v>
       </c>
       <c r="H36">
-        <v>47.554098500000002</v>
+        <v>47.413209000000002</v>
       </c>
       <c r="I36">
-        <v>17777</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3084,13 +3084,13 @@
         <v>47.413765329999997</v>
       </c>
       <c r="G38">
-        <v>8.5936418999999997</v>
+        <v>8.4498549000000001</v>
       </c>
       <c r="H38">
-        <v>47.515776199999998</v>
+        <v>47.413209000000002</v>
       </c>
       <c r="I38">
-        <v>19508.509999999998</v>
+        <v>70.63</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3171,13 +3171,13 @@
         <v>47.372816139999998</v>
       </c>
       <c r="G41">
-        <v>8.4227600999999996</v>
+        <v>8.4487345999999999</v>
       </c>
       <c r="H41">
-        <v>47.391131999999999</v>
+        <v>47.373517900000003</v>
       </c>
       <c r="I41">
-        <v>3624.66</v>
+        <v>145.79</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3345,13 +3345,13 @@
         <v>47.395323750000003</v>
       </c>
       <c r="G47">
-        <v>8.4505631999999995</v>
+        <v>8.4518833999999998</v>
       </c>
       <c r="H47">
-        <v>47.395300499999998</v>
+        <v>47.395810300000001</v>
       </c>
       <c r="I47">
-        <v>6.71</v>
+        <v>150.49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,13 +3403,13 @@
         <v>47.397090400000003</v>
       </c>
       <c r="G49">
-        <v>8.4872391999999994</v>
+        <v>8.4505894999999995</v>
       </c>
       <c r="H49">
-        <v>47.477999199999999</v>
+        <v>47.397035700000004</v>
       </c>
       <c r="I49">
-        <v>9792.36</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3519,13 +3519,13 @@
         <v>47.398441779999999</v>
       </c>
       <c r="G53">
-        <v>8.5441223999999991</v>
+        <v>8.4507252000000008</v>
       </c>
       <c r="H53">
-        <v>47.372076</v>
+        <v>47.398442299999999</v>
       </c>
       <c r="I53">
-        <v>10787.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3548,13 +3548,13 @@
         <v>47.398376599999999</v>
       </c>
       <c r="G54">
-        <v>8.4535183000000007</v>
+        <v>8.4383046999999998</v>
       </c>
       <c r="H54">
-        <v>47.411952800000002</v>
+        <v>47.418181099999998</v>
       </c>
       <c r="I54">
-        <v>1512.8</v>
+        <v>2618.65</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3577,13 +3577,13 @@
         <v>47.398547860000001</v>
       </c>
       <c r="G55">
-        <v>8.4037696000000004</v>
+        <v>8.4514890999999999</v>
       </c>
       <c r="H55">
-        <v>47.4039906</v>
+        <v>47.3985463</v>
       </c>
       <c r="I55">
-        <v>5341.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3606,13 +3606,13 @@
         <v>47.399120480000001</v>
       </c>
       <c r="G56">
-        <v>8.5834088000000008</v>
+        <v>8.4511246</v>
       </c>
       <c r="H56">
-        <v>47.415930899999999</v>
+        <v>47.399125599999998</v>
       </c>
       <c r="I56">
-        <v>14822.49</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3635,13 +3635,13 @@
         <v>47.410595809999997</v>
       </c>
       <c r="G57">
-        <v>8.4536700000000007</v>
+        <v>8.5272822999999995</v>
       </c>
       <c r="H57">
-        <v>47.410739999999997</v>
+        <v>47.390951100000002</v>
       </c>
       <c r="I57">
-        <v>281.51</v>
+        <v>8740.35</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3751,13 +3751,13 @@
         <v>47.373915910000001</v>
       </c>
       <c r="G61">
-        <v>8.7312753000000001</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H61">
-        <v>47.507606500000001</v>
+        <v>47.3732854</v>
       </c>
       <c r="I61">
-        <v>34416.68</v>
+        <v>450.25</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3838,13 +3838,13 @@
         <v>47.395803860000001</v>
       </c>
       <c r="G64">
-        <v>8.5941220000000005</v>
+        <v>8.4518833999999998</v>
       </c>
       <c r="H64">
-        <v>47.394448799999999</v>
+        <v>47.395810300000001</v>
       </c>
       <c r="I64">
-        <v>15853.4</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3896,13 +3896,13 @@
         <v>47.397483919999999</v>
       </c>
       <c r="G66">
-        <v>8.7400220999999991</v>
+        <v>8.4520605</v>
       </c>
       <c r="H66">
-        <v>47.496529299999999</v>
+        <v>47.397434799999999</v>
       </c>
       <c r="I66">
-        <v>33832.15</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3925,13 +3925,13 @@
         <v>47.400500860000001</v>
       </c>
       <c r="G67">
-        <v>8.5723483999999992</v>
+        <v>8.4522612000000006</v>
       </c>
       <c r="H67">
-        <v>47.343724399999999</v>
+        <v>47.400514100000002</v>
       </c>
       <c r="I67">
-        <v>14750.81</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3954,13 +3954,13 @@
         <v>47.401080329999999</v>
       </c>
       <c r="G68">
-        <v>8.5725485999999993</v>
+        <v>8.4522125999999993</v>
       </c>
       <c r="H68">
-        <v>47.345119599999997</v>
+        <v>47.401061200000001</v>
       </c>
       <c r="I68">
-        <v>14726.35</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3983,13 +3983,13 @@
         <v>47.4058894</v>
       </c>
       <c r="G69">
-        <v>8.4094200000000008</v>
+        <v>8.4474</v>
       </c>
       <c r="H69">
-        <v>47.281469999999999</v>
+        <v>47.394399999999997</v>
       </c>
       <c r="I69">
-        <v>14478.27</v>
+        <v>1355.29</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4041,13 +4041,13 @@
         <v>47.411084119999998</v>
       </c>
       <c r="G71">
-        <v>8.6467513</v>
+        <v>8.4511151000000009</v>
       </c>
       <c r="H71">
-        <v>47.6890918</v>
+        <v>47.411176900000001</v>
       </c>
       <c r="I71">
-        <v>37484.269999999997</v>
+        <v>82.03</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4157,13 +4157,13 @@
         <v>47.413615350000001</v>
       </c>
       <c r="G75">
-        <v>8.5332655000000006</v>
+        <v>8.4523229999999998</v>
       </c>
       <c r="H75">
-        <v>47.622733699999998</v>
+        <v>47.413978499999999</v>
       </c>
       <c r="I75">
-        <v>24689.9</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4244,13 +4244,13 @@
         <v>47.370820500000001</v>
       </c>
       <c r="G78">
-        <v>8.7931463000000001</v>
+        <v>8.4455270999999996</v>
       </c>
       <c r="H78">
-        <v>47.239424200000002</v>
+        <v>47.4150226</v>
       </c>
       <c r="I78">
-        <v>40525.58</v>
+        <v>4929.2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4273,13 +4273,13 @@
         <v>47.371138420000001</v>
       </c>
       <c r="G79">
-        <v>8.5285946999999993</v>
+        <v>8.4622405999999994</v>
       </c>
       <c r="H79">
-        <v>47.554098500000002</v>
+        <v>47.3682546</v>
       </c>
       <c r="I79">
-        <v>21820.95</v>
+        <v>1094.6500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4360,13 +4360,13 @@
         <v>47.373763109999999</v>
       </c>
       <c r="G82">
-        <v>8.4534518999999992</v>
+        <v>8.7306474999999999</v>
       </c>
       <c r="H82">
-        <v>47.295911199999999</v>
+        <v>47.506524300000002</v>
       </c>
       <c r="I82">
-        <v>8565.3799999999992</v>
+        <v>34113.42</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,13 +4534,13 @@
         <v>47.397057580000002</v>
       </c>
       <c r="G88">
-        <v>8.7886986999999994</v>
+        <v>8.5850310000000007</v>
       </c>
       <c r="H88">
-        <v>47.522092399999998</v>
+        <v>47.445917000000001</v>
       </c>
       <c r="I88">
-        <v>39767.49</v>
+        <v>15614.8</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4563,13 +4563,13 @@
         <v>47.397069139999999</v>
       </c>
       <c r="G89">
-        <v>8.8535632</v>
+        <v>8.4539986000000003</v>
       </c>
       <c r="H89">
-        <v>47.2582272</v>
+        <v>47.397055100000003</v>
       </c>
       <c r="I89">
-        <v>46986.43</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4679,13 +4679,13 @@
         <v>47.401057129999998</v>
       </c>
       <c r="G93">
-        <v>8.5725722999999991</v>
+        <v>8.4535982999999995</v>
       </c>
       <c r="H93">
-        <v>47.344397299999997</v>
+        <v>47.401002099999999</v>
       </c>
       <c r="I93">
-        <v>14638.21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4766,13 +4766,13 @@
         <v>47.41187128</v>
       </c>
       <c r="G96">
-        <v>8.7034377000000003</v>
+        <v>8.4491005000000001</v>
       </c>
       <c r="H96">
-        <v>47.482317799999997</v>
+        <v>47.413473000000003</v>
       </c>
       <c r="I96">
-        <v>28862.2</v>
+        <v>518.02</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4911,13 +4911,13 @@
         <v>47.41292206</v>
       </c>
       <c r="G101">
-        <v>8.7491824999999999</v>
+        <v>8.4514192000000001</v>
       </c>
       <c r="H101">
-        <v>47.453931099999998</v>
+        <v>47.413147500000001</v>
       </c>
       <c r="I101">
-        <v>33235.1</v>
+        <v>194.1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4969,13 +4969,13 @@
         <v>47.413982330000003</v>
       </c>
       <c r="G103">
-        <v>8.5895341999999992</v>
+        <v>8.7202325999999992</v>
       </c>
       <c r="H103">
-        <v>47.314263699999998</v>
+        <v>47.3426689</v>
       </c>
       <c r="I103">
-        <v>18719.14</v>
+        <v>30724</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,13 +5056,13 @@
         <v>47.370348020000002</v>
       </c>
       <c r="G106">
-        <v>8.7116574999999994</v>
+        <v>8.4536067999999993</v>
       </c>
       <c r="H106">
-        <v>47.494345899999999</v>
+        <v>47.370365700000001</v>
       </c>
       <c r="I106">
-        <v>31769.919999999998</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,13 +5085,13 @@
         <v>47.371232589999998</v>
       </c>
       <c r="G107">
-        <v>8.5192490999999997</v>
+        <v>8.4560461999999994</v>
       </c>
       <c r="H107">
-        <v>47.337782900000001</v>
+        <v>47.370605699999999</v>
       </c>
       <c r="I107">
-        <v>8148.2</v>
+        <v>249.59</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5288,13 +5288,13 @@
         <v>47.397033139999998</v>
       </c>
       <c r="G114">
-        <v>8.5070052</v>
+        <v>8.4487947000000005</v>
       </c>
       <c r="H114">
-        <v>47.554265800000003</v>
+        <v>47.396346899999998</v>
       </c>
       <c r="I114">
-        <v>18257.810000000001</v>
+        <v>636.62</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5317,13 +5317,13 @@
         <v>47.397672669999999</v>
       </c>
       <c r="G115">
-        <v>8.6032489999999999</v>
+        <v>8.4545934000000003</v>
       </c>
       <c r="H115">
-        <v>47.411940000000001</v>
+        <v>47.397701300000001</v>
       </c>
       <c r="I115">
-        <v>16616.419999999998</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5462,13 +5462,13 @@
         <v>47.41166715</v>
       </c>
       <c r="G120">
-        <v>8.4459801999999993</v>
+        <v>8.4547273999999994</v>
       </c>
       <c r="H120">
-        <v>47.4145574</v>
+        <v>47.411653100000002</v>
       </c>
       <c r="I120">
-        <v>1025.8399999999999</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -5694,13 +5694,13 @@
         <v>47.373214410000003</v>
       </c>
       <c r="G128">
-        <v>8.7302607999999999</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H128">
-        <v>47.506235199999999</v>
+        <v>47.3732854</v>
       </c>
       <c r="I128">
-        <v>33822.51</v>
+        <v>65.72</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5781,13 +5781,13 @@
         <v>47.390855199999997</v>
       </c>
       <c r="G131">
-        <v>8.7409972000000007</v>
+        <v>8.4483812</v>
       </c>
       <c r="H131">
-        <v>47.364438100000001</v>
+        <v>47.392396400000003</v>
       </c>
       <c r="I131">
-        <v>31886.560000000001</v>
+        <v>811.62</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5839,13 +5839,13 @@
         <v>47.396831689999999</v>
       </c>
       <c r="G133">
-        <v>8.6080734999999997</v>
+        <v>8.4559519000000005</v>
       </c>
       <c r="H133">
-        <v>47.411254399999997</v>
+        <v>47.396821600000003</v>
       </c>
       <c r="I133">
-        <v>16986.03</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,13 +5868,13 @@
         <v>47.396883750000001</v>
       </c>
       <c r="G134">
-        <v>8.6093700000000002</v>
+        <v>8.4562609000000002</v>
       </c>
       <c r="H134">
-        <v>47.4113957</v>
+        <v>47.397346400000004</v>
       </c>
       <c r="I134">
-        <v>17082.05</v>
+        <v>55.85</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5897,13 +5897,13 @@
         <v>47.397664910000003</v>
       </c>
       <c r="G135">
-        <v>8.3958557999999996</v>
+        <v>8.4565134999999998</v>
       </c>
       <c r="H135">
-        <v>47.403971200000001</v>
+        <v>47.3976598</v>
       </c>
       <c r="I135">
-        <v>6785.88</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5955,13 +5955,13 @@
         <v>47.409040830000002</v>
       </c>
       <c r="G137">
-        <v>8.5981854000000002</v>
+        <v>8.4560983000000007</v>
       </c>
       <c r="H137">
-        <v>47.350683799999999</v>
+        <v>47.409003599999998</v>
       </c>
       <c r="I137">
-        <v>17062.560000000001</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5984,13 +5984,13 @@
         <v>47.408909049999998</v>
       </c>
       <c r="G138">
-        <v>8.5973640000000007</v>
+        <v>8.4563957999999992</v>
       </c>
       <c r="H138">
-        <v>47.350672600000003</v>
+        <v>47.4089192</v>
       </c>
       <c r="I138">
-        <v>16938.14</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6042,13 +6042,13 @@
         <v>47.410364680000001</v>
       </c>
       <c r="G140">
-        <v>8.5267196999999992</v>
+        <v>8.4533602000000005</v>
       </c>
       <c r="H140">
-        <v>47.3908798</v>
+        <v>47.4109263</v>
       </c>
       <c r="I140">
-        <v>8170.38</v>
+        <v>282.43</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6071,13 +6071,13 @@
         <v>47.410311829999998</v>
       </c>
       <c r="G141">
-        <v>8.5269233999999994</v>
+        <v>8.4562111000000009</v>
       </c>
       <c r="H141">
-        <v>47.3907819</v>
+        <v>47.410285500000001</v>
       </c>
       <c r="I141">
-        <v>8151.94</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6100,13 +6100,13 @@
         <v>47.410302190000003</v>
       </c>
       <c r="G142">
-        <v>8.5270241999999996</v>
+        <v>8.4566759000000005</v>
       </c>
       <c r="H142">
-        <v>47.390724800000001</v>
+        <v>47.410243600000001</v>
       </c>
       <c r="I142">
-        <v>8114.12</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6129,13 +6129,13 @@
         <v>47.411668179999999</v>
       </c>
       <c r="G143">
-        <v>8.7048386000000004</v>
+        <v>8.4561531999999993</v>
       </c>
       <c r="H143">
-        <v>47.490848</v>
+        <v>47.4116912</v>
       </c>
       <c r="I143">
-        <v>29000.36</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6158,13 +6158,13 @@
         <v>47.41118676</v>
       </c>
       <c r="G144">
-        <v>8.7039963</v>
+        <v>8.4562466000000001</v>
       </c>
       <c r="H144">
-        <v>47.4895797</v>
+        <v>47.411184400000003</v>
       </c>
       <c r="I144">
-        <v>28872.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6216,13 +6216,13 @@
         <v>47.411964009999998</v>
       </c>
       <c r="G146">
-        <v>8.7048980999999994</v>
+        <v>8.4557798999999996</v>
       </c>
       <c r="H146">
-        <v>47.490602799999998</v>
+        <v>47.411929499999999</v>
       </c>
       <c r="I146">
-        <v>29025.25</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6245,13 +6245,13 @@
         <v>47.412328649999999</v>
       </c>
       <c r="G147">
-        <v>8.4552560999999997</v>
+        <v>8.4556992999999991</v>
       </c>
       <c r="H147">
-        <v>47.410928900000002</v>
+        <v>47.411951899999998</v>
       </c>
       <c r="I147">
-        <v>209.99</v>
+        <v>102.24</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6477,13 +6477,13 @@
         <v>47.392971729999999</v>
       </c>
       <c r="G155">
-        <v>8.7311016000000006</v>
+        <v>8.4514124000000006</v>
       </c>
       <c r="H155">
-        <v>47.383612200000002</v>
+        <v>47.394919999999999</v>
       </c>
       <c r="I155">
-        <v>30427.8</v>
+        <v>731.51</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -6506,13 +6506,13 @@
         <v>47.398137890000001</v>
       </c>
       <c r="G156">
-        <v>8.4052579999999999</v>
+        <v>8.4565678000000002</v>
       </c>
       <c r="H156">
-        <v>47.402636299999998</v>
+        <v>47.398218999999997</v>
       </c>
       <c r="I156">
-        <v>5739.51</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -6593,13 +6593,13 @@
         <v>47.408297679999997</v>
       </c>
       <c r="G159">
-        <v>8.7933637999999998</v>
+        <v>8.4577010000000001</v>
       </c>
       <c r="H159">
-        <v>47.3262918</v>
+        <v>47.408270000000002</v>
       </c>
       <c r="I159">
-        <v>38407.19</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6680,13 +6680,13 @@
         <v>47.412339209999999</v>
       </c>
       <c r="G162">
-        <v>8.4577776999999994</v>
+        <v>8.4575434000000005</v>
       </c>
       <c r="H162">
-        <v>47.4121977</v>
+        <v>47.412311799999998</v>
       </c>
       <c r="I162">
-        <v>21.98</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6738,13 +6738,13 @@
         <v>47.369853059999997</v>
       </c>
       <c r="G164">
-        <v>8.4373985000000005</v>
+        <v>8.4394641000000004</v>
       </c>
       <c r="H164">
-        <v>47.356774100000003</v>
+        <v>47.356014899999998</v>
       </c>
       <c r="I164">
-        <v>2750.26</v>
+        <v>2605.1999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6767,13 +6767,13 @@
         <v>47.370096080000003</v>
       </c>
       <c r="G165">
-        <v>8.8371074000000007</v>
+        <v>8.4587347000000008</v>
       </c>
       <c r="H165">
-        <v>47.512668099999999</v>
+        <v>47.369867800000002</v>
       </c>
       <c r="I165">
-        <v>44928.73</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -7086,13 +7086,13 @@
         <v>47.408161319999998</v>
       </c>
       <c r="G176">
-        <v>8.7768571000000009</v>
+        <v>8.4583314000000005</v>
       </c>
       <c r="H176">
-        <v>47.244828599999998</v>
+        <v>47.408099399999998</v>
       </c>
       <c r="I176">
-        <v>39718.36</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7144,13 +7144,13 @@
         <v>47.407774660000001</v>
       </c>
       <c r="G178">
-        <v>8.5299724999999995</v>
+        <v>8.4574923999999996</v>
       </c>
       <c r="H178">
-        <v>47.307532999999999</v>
+        <v>47.407331800000001</v>
       </c>
       <c r="I178">
-        <v>13576.99</v>
+        <v>149.99</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7173,13 +7173,13 @@
         <v>47.407683030000001</v>
       </c>
       <c r="G179">
-        <v>8.5661866999999994</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H179">
-        <v>47.516003300000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I179">
-        <v>16843.490000000002</v>
+        <v>374.69</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7318,13 +7318,13 @@
         <v>47.412383550000001</v>
       </c>
       <c r="G184">
-        <v>8.5772408000000002</v>
+        <v>8.4591244000000003</v>
       </c>
       <c r="H184">
-        <v>47.426241099999999</v>
+        <v>47.412105099999998</v>
       </c>
       <c r="I184">
-        <v>13256.2</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7347,13 +7347,13 @@
         <v>47.41288788</v>
       </c>
       <c r="G185">
-        <v>8.7144121999999999</v>
+        <v>8.4586538999999998</v>
       </c>
       <c r="H185">
-        <v>47.413971799999999</v>
+        <v>47.412852700000002</v>
       </c>
       <c r="I185">
-        <v>28447.42</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -7405,13 +7405,13 @@
         <v>47.412872640000003</v>
       </c>
       <c r="G187">
-        <v>8.5665031999999997</v>
+        <v>8.4594676</v>
       </c>
       <c r="H187">
-        <v>47.366821999999999</v>
+        <v>47.412927799999999</v>
       </c>
       <c r="I187">
-        <v>12941.32</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -7579,13 +7579,13 @@
         <v>47.369969949999998</v>
       </c>
       <c r="G193">
-        <v>8.8371074000000007</v>
+        <v>8.4587347000000008</v>
       </c>
       <c r="H193">
-        <v>47.512668099999999</v>
+        <v>47.369867800000002</v>
       </c>
       <c r="I193">
-        <v>44888.99</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7637,13 +7637,13 @@
         <v>47.369710249999997</v>
       </c>
       <c r="G195">
-        <v>8.7302607999999999</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H195">
-        <v>47.506235199999999</v>
+        <v>47.3732854</v>
       </c>
       <c r="I195">
-        <v>33644.120000000003</v>
+        <v>599.44000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7666,13 +7666,13 @@
         <v>47.370842269999997</v>
       </c>
       <c r="G196">
-        <v>8.6435469000000005</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H196">
-        <v>47.510445799999999</v>
+        <v>47.3732854</v>
       </c>
       <c r="I196">
-        <v>25650.59</v>
+        <v>455.93</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -7695,13 +7695,13 @@
         <v>47.370558260000003</v>
       </c>
       <c r="G197">
-        <v>8.7320765999999992</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H197">
-        <v>47.508528200000001</v>
+        <v>47.3732854</v>
       </c>
       <c r="I197">
-        <v>33887.31</v>
+        <v>550.75</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -7782,13 +7782,13 @@
         <v>47.401021950000001</v>
       </c>
       <c r="G200">
-        <v>8.4280877000000007</v>
+        <v>8.4368604000000005</v>
       </c>
       <c r="H200">
-        <v>47.398010900000003</v>
+        <v>47.402254900000003</v>
       </c>
       <c r="I200">
-        <v>3593.83</v>
+        <v>2606.27</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -7811,13 +7811,13 @@
         <v>47.406258280000003</v>
       </c>
       <c r="G201">
-        <v>8.4004002999999994</v>
+        <v>8.4597207000000001</v>
       </c>
       <c r="H201">
-        <v>47.4129085</v>
+        <v>47.406210399999999</v>
       </c>
       <c r="I201">
-        <v>6641.03</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7840,13 +7840,13 @@
         <v>47.40664761</v>
       </c>
       <c r="G202">
-        <v>8.7581968999999997</v>
+        <v>8.4598987000000001</v>
       </c>
       <c r="H202">
-        <v>47.50712</v>
+        <v>47.406685000000003</v>
       </c>
       <c r="I202">
-        <v>34981.019999999997</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -7869,13 +7869,13 @@
         <v>47.40734767</v>
       </c>
       <c r="G203">
-        <v>8.6903553000000002</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H203">
-        <v>47.300973800000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I203">
-        <v>28165.52</v>
+        <v>308.01</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -7927,13 +7927,13 @@
         <v>47.406697809999997</v>
       </c>
       <c r="G205">
-        <v>8.6082389999999993</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H205">
-        <v>47.213699800000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I205">
-        <v>26851.78</v>
+        <v>323.20999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7956,13 +7956,13 @@
         <v>47.406724799999999</v>
       </c>
       <c r="G206">
-        <v>8.6082389999999993</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H206">
-        <v>47.213699800000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I206">
-        <v>26853.03</v>
+        <v>319.77999999999997</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -7985,13 +7985,13 @@
         <v>47.408247629999998</v>
       </c>
       <c r="G207">
-        <v>8.6894738</v>
+        <v>8.4598800000000001</v>
       </c>
       <c r="H207">
-        <v>47.433353199999999</v>
+        <v>47.408332899999998</v>
       </c>
       <c r="I207">
-        <v>25683.05</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -8014,13 +8014,13 @@
         <v>47.407649880000001</v>
       </c>
       <c r="G208">
-        <v>8.5661866999999994</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H208">
-        <v>47.516003300000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I208">
-        <v>16777.62</v>
+        <v>288.7</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8043,13 +8043,13 @@
         <v>47.408811069999999</v>
       </c>
       <c r="G209">
-        <v>8.7415427999999995</v>
+        <v>8.4599659000000003</v>
       </c>
       <c r="H209">
-        <v>47.413678400000002</v>
+        <v>47.408385699999997</v>
       </c>
       <c r="I209">
-        <v>31355.62</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8072,13 +8072,13 @@
         <v>47.408705689999998</v>
       </c>
       <c r="G210">
-        <v>8.7899632000000008</v>
+        <v>8.4601482000000008</v>
       </c>
       <c r="H210">
-        <v>47.521728000000003</v>
+        <v>47.408656000000001</v>
       </c>
       <c r="I210">
-        <v>38728.06</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8101,13 +8101,13 @@
         <v>47.41136272</v>
       </c>
       <c r="G211">
-        <v>8.5884786000000002</v>
+        <v>8.4595614999999995</v>
       </c>
       <c r="H211">
-        <v>47.311333099999999</v>
+        <v>47.4113793</v>
       </c>
       <c r="I211">
-        <v>18076.52</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -8130,13 +8130,13 @@
         <v>47.411498969999997</v>
       </c>
       <c r="G212">
-        <v>8.6681614000000007</v>
+        <v>8.7295929000000001</v>
       </c>
       <c r="H212">
-        <v>47.230787900000003</v>
+        <v>47.245035199999997</v>
       </c>
       <c r="I212">
-        <v>30482.3</v>
+        <v>35096.99</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -8159,13 +8159,13 @@
         <v>47.411765840000001</v>
       </c>
       <c r="G213">
-        <v>8.4959787999999996</v>
+        <v>8.4591244000000003</v>
       </c>
       <c r="H213">
-        <v>47.4852098</v>
+        <v>47.412105099999998</v>
       </c>
       <c r="I213">
-        <v>8986.44</v>
+        <v>170.06</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -8188,13 +8188,13 @@
         <v>47.411868689999999</v>
       </c>
       <c r="G214">
-        <v>8.7299573000000006</v>
+        <v>8.4604368999999995</v>
       </c>
       <c r="H214">
-        <v>47.245945200000001</v>
+        <v>47.411875299999998</v>
       </c>
       <c r="I214">
-        <v>35089.67</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -8304,13 +8304,13 @@
         <v>47.369986189999999</v>
       </c>
       <c r="G218">
-        <v>8.4398076</v>
+        <v>8.5213330000000003</v>
       </c>
       <c r="H218">
-        <v>47.453908499999997</v>
+        <v>47.3629715</v>
       </c>
       <c r="I218">
-        <v>9521.58</v>
+        <v>6786.96</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -8362,13 +8362,13 @@
         <v>47.371648370000003</v>
       </c>
       <c r="G220">
-        <v>8.5792684000000001</v>
+        <v>8.4560461999999994</v>
       </c>
       <c r="H220">
-        <v>47.455672100000001</v>
+        <v>47.370605699999999</v>
       </c>
       <c r="I220">
-        <v>16098.72</v>
+        <v>537.34</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -8391,13 +8391,13 @@
         <v>47.372782430000001</v>
       </c>
       <c r="G221">
-        <v>8.5792684000000001</v>
+        <v>8.4560461999999994</v>
       </c>
       <c r="H221">
-        <v>47.455672100000001</v>
+        <v>47.370605699999999</v>
       </c>
       <c r="I221">
-        <v>16006.92</v>
+        <v>599.79</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -8420,13 +8420,13 @@
         <v>47.372744279999999</v>
       </c>
       <c r="G222">
-        <v>8.5792684000000001</v>
+        <v>8.4560461999999994</v>
       </c>
       <c r="H222">
-        <v>47.455672100000001</v>
+        <v>47.370605699999999</v>
       </c>
       <c r="I222">
-        <v>16005.29</v>
+        <v>602.62</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -8478,13 +8478,13 @@
         <v>47.397077600000003</v>
       </c>
       <c r="G224">
-        <v>8.7074522000000005</v>
+        <v>8.4608323999999993</v>
       </c>
       <c r="H224">
-        <v>47.492425400000002</v>
+        <v>47.3971947</v>
       </c>
       <c r="I224">
-        <v>29383.61</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -8565,13 +8565,13 @@
         <v>47.400741889999999</v>
       </c>
       <c r="G227">
-        <v>8.5410053000000001</v>
+        <v>8.4615954999999996</v>
       </c>
       <c r="H227">
-        <v>47.513477199999997</v>
+        <v>47.400748200000002</v>
       </c>
       <c r="I227">
-        <v>15222.38</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -8594,13 +8594,13 @@
         <v>47.406343229999997</v>
       </c>
       <c r="G228">
-        <v>8.5852780000000006</v>
+        <v>8.4606440999999997</v>
       </c>
       <c r="H228">
-        <v>47.316892099999997</v>
+        <v>47.406269299999998</v>
       </c>
       <c r="I228">
-        <v>17001.04</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -8681,13 +8681,13 @@
         <v>47.407069069999999</v>
       </c>
       <c r="G231">
-        <v>8.6681501000000001</v>
+        <v>8.4698103000000007</v>
       </c>
       <c r="H231">
-        <v>47.551218599999999</v>
+        <v>47.405694799999999</v>
       </c>
       <c r="I231">
-        <v>27922.1</v>
+        <v>935.02</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -8855,13 +8855,13 @@
         <v>47.410835769999998</v>
       </c>
       <c r="G237">
-        <v>8.7965883999999992</v>
+        <v>8.4597920999999996</v>
       </c>
       <c r="H237">
-        <v>47.3216933</v>
+        <v>47.411147399999997</v>
       </c>
       <c r="I237">
-        <v>38587.35</v>
+        <v>144.57</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -8884,13 +8884,13 @@
         <v>47.411661240000001</v>
       </c>
       <c r="G238">
-        <v>8.6055159999999997</v>
+        <v>8.4591244000000003</v>
       </c>
       <c r="H238">
-        <v>47.256142799999999</v>
+        <v>47.412105099999998</v>
       </c>
       <c r="I238">
-        <v>23491.08</v>
+        <v>190.16</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -9000,13 +9000,13 @@
         <v>47.406199039999997</v>
       </c>
       <c r="G242">
-        <v>8.5292363000000009</v>
+        <v>8.4620499000000002</v>
       </c>
       <c r="H242">
-        <v>47.516983600000003</v>
+        <v>47.406358900000001</v>
       </c>
       <c r="I242">
-        <v>14269.31</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -9203,13 +9203,13 @@
         <v>47.41214815</v>
       </c>
       <c r="G249">
-        <v>8.4580687999999995</v>
+        <v>8.6306176000000008</v>
       </c>
       <c r="H249">
-        <v>47.416124000000003</v>
+        <v>47.395377500000002</v>
       </c>
       <c r="I249">
-        <v>649.64</v>
+        <v>18802.97</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -9261,13 +9261,13 @@
         <v>47.392524600000002</v>
       </c>
       <c r="G251">
-        <v>8.6734861999999993</v>
+        <v>8.4654921999999999</v>
       </c>
       <c r="H251">
-        <v>47.227657399999998</v>
+        <v>47.395631999999999</v>
       </c>
       <c r="I251">
-        <v>29521.39</v>
+        <v>377.71</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -9290,13 +9290,13 @@
         <v>47.397292999999998</v>
       </c>
       <c r="G252">
-        <v>8.7072371000000004</v>
+        <v>8.4483888999999994</v>
       </c>
       <c r="H252">
-        <v>47.491684499999998</v>
+        <v>47.3975832</v>
       </c>
       <c r="I252">
-        <v>28996.05</v>
+        <v>1718.05</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -9319,13 +9319,13 @@
         <v>47.400506479999997</v>
       </c>
       <c r="G253">
-        <v>8.3984164999999997</v>
+        <v>8.4368604000000005</v>
       </c>
       <c r="H253">
-        <v>47.390557399999999</v>
+        <v>47.402254900000003</v>
       </c>
       <c r="I253">
-        <v>7322.93</v>
+        <v>2970.77</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -9348,13 +9348,13 @@
         <v>47.401189219999999</v>
       </c>
       <c r="G254">
-        <v>8.7314436999999998</v>
+        <v>8.4663049000000008</v>
       </c>
       <c r="H254">
-        <v>47.489022400000003</v>
+        <v>47.400611499999997</v>
       </c>
       <c r="I254">
-        <v>31376.81</v>
+        <v>367.03</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -9464,13 +9464,13 @@
         <v>47.405792300000002</v>
       </c>
       <c r="G258">
-        <v>8.7387339999999991</v>
+        <v>8.4632839000000004</v>
       </c>
       <c r="H258">
-        <v>47.393070600000001</v>
+        <v>47.4057508</v>
       </c>
       <c r="I258">
-        <v>30671.75</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -9493,13 +9493,13 @@
         <v>47.407019599999998</v>
       </c>
       <c r="G259">
-        <v>8.7555282000000005</v>
+        <v>8.4698103000000007</v>
       </c>
       <c r="H259">
-        <v>47.510028400000003</v>
+        <v>47.405694799999999</v>
       </c>
       <c r="I259">
-        <v>34372.94</v>
+        <v>687.75</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -9667,13 +9667,13 @@
         <v>47.374604400000003</v>
       </c>
       <c r="G265">
-        <v>8.4082922</v>
+        <v>8.6548134999999995</v>
       </c>
       <c r="H265">
-        <v>47.519924799999998</v>
+        <v>47.387130399999997</v>
       </c>
       <c r="I265">
-        <v>17146.29</v>
+        <v>21272.86</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -9696,13 +9696,13 @@
         <v>47.395170280000002</v>
       </c>
       <c r="G266">
-        <v>8.4653884000000001</v>
+        <v>8.4654921999999999</v>
       </c>
       <c r="H266">
-        <v>47.3952642</v>
+        <v>47.395631999999999</v>
       </c>
       <c r="I266">
-        <v>11.01</v>
+        <v>51.38</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -9725,13 +9725,13 @@
         <v>47.395806149999999</v>
       </c>
       <c r="G267">
-        <v>8.5813606</v>
+        <v>8.4654921999999999</v>
       </c>
       <c r="H267">
-        <v>47.266818399999998</v>
+        <v>47.395631999999999</v>
       </c>
       <c r="I267">
-        <v>19188.54</v>
+        <v>35.659999999999997</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -9783,13 +9783,13 @@
         <v>47.400893349999997</v>
       </c>
       <c r="G269">
-        <v>8.4642853000000002</v>
+        <v>8.4639997000000005</v>
       </c>
       <c r="H269">
-        <v>47.400900100000001</v>
+        <v>47.4030226</v>
       </c>
       <c r="I269">
-        <v>9.61</v>
+        <v>237.88</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -10015,13 +10015,13 @@
         <v>47.410246319999999</v>
       </c>
       <c r="G277">
-        <v>8.6000104000000004</v>
+        <v>8.4658587999999995</v>
       </c>
       <c r="H277">
-        <v>47.302588100000001</v>
+        <v>47.4102259</v>
       </c>
       <c r="I277">
-        <v>19047.22</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -10247,13 +10247,13 @@
         <v>47.397052279999997</v>
       </c>
       <c r="G285">
-        <v>8.6426146999999993</v>
+        <v>8.4570933000000004</v>
       </c>
       <c r="H285">
-        <v>47.692267299999997</v>
+        <v>47.398322800000003</v>
       </c>
       <c r="I285">
-        <v>37862.25</v>
+        <v>1171.8</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -10276,13 +10276,13 @@
         <v>47.39887547</v>
       </c>
       <c r="G286">
-        <v>8.4043197999999997</v>
+        <v>8.4365088000000004</v>
       </c>
       <c r="H286">
-        <v>47.393713699999999</v>
+        <v>47.401976599999998</v>
       </c>
       <c r="I286">
-        <v>7040.05</v>
+        <v>3453.63</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -10653,13 +10653,13 @@
         <v>47.395046710000003</v>
       </c>
       <c r="G299">
-        <v>8.5289295000000003</v>
+        <v>8.4570933000000004</v>
       </c>
       <c r="H299">
-        <v>47.553541000000003</v>
+        <v>47.398322800000003</v>
       </c>
       <c r="I299">
-        <v>18702.71</v>
+        <v>1275.7</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -10682,13 +10682,13 @@
         <v>47.395061779999999</v>
       </c>
       <c r="G300">
-        <v>8.4142714000000005</v>
+        <v>8.4684521999999998</v>
       </c>
       <c r="H300">
-        <v>47.399418900000001</v>
+        <v>47.395071999999999</v>
       </c>
       <c r="I300">
-        <v>6052.08</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -10885,13 +10885,13 @@
         <v>47.407549430000003</v>
       </c>
       <c r="G307">
-        <v>8.5289295000000003</v>
+        <v>8.4772829999999999</v>
       </c>
       <c r="H307">
-        <v>47.553541000000003</v>
+        <v>47.405259899999997</v>
       </c>
       <c r="I307">
-        <v>17410.21</v>
+        <v>1009.08</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -10914,13 +10914,13 @@
         <v>47.407449479999997</v>
       </c>
       <c r="G308">
-        <v>8.4594726999999992</v>
+        <v>8.4684909000000008</v>
       </c>
       <c r="H308">
-        <v>47.397736399999999</v>
+        <v>47.407407900000003</v>
       </c>
       <c r="I308">
-        <v>1469.72</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -10943,13 +10943,13 @@
         <v>47.40918551</v>
       </c>
       <c r="G309">
-        <v>8.6687153000000006</v>
+        <v>8.4682980000000008</v>
       </c>
       <c r="H309">
-        <v>47.336743499999997</v>
+        <v>47.409241700000003</v>
       </c>
       <c r="I309">
-        <v>23660.13</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -11175,13 +11175,13 @@
         <v>47.394421010000002</v>
       </c>
       <c r="G317">
-        <v>8.4179867000000002</v>
+        <v>8.4704341000000003</v>
       </c>
       <c r="H317">
-        <v>47.398866599999998</v>
+        <v>47.394379499999999</v>
       </c>
       <c r="I317">
-        <v>5858.47</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -11320,13 +11320,13 @@
         <v>47.40885634</v>
       </c>
       <c r="G322">
-        <v>8.4716854000000001</v>
+        <v>8.4708363000000002</v>
       </c>
       <c r="H322">
-        <v>47.409556000000002</v>
+        <v>47.408802100000003</v>
       </c>
       <c r="I322">
-        <v>126.25</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -11929,13 +11929,13 @@
         <v>47.4060232</v>
       </c>
       <c r="G343">
-        <v>8.4483098000000005</v>
+        <v>8.4714113999999991</v>
       </c>
       <c r="H343">
-        <v>47.413230200000001</v>
+        <v>47.406002700000002</v>
       </c>
       <c r="I343">
-        <v>2687.95</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -11958,13 +11958,13 @@
         <v>47.4062938</v>
       </c>
       <c r="G344">
-        <v>8.7108933000000004</v>
+        <v>8.4718915999999993</v>
       </c>
       <c r="H344">
-        <v>47.494404500000002</v>
+        <v>47.406246500000002</v>
       </c>
       <c r="I344">
-        <v>28294.23</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -12509,13 +12509,13 @@
         <v>47.396918370000002</v>
       </c>
       <c r="G363">
-        <v>8.4821515000000005</v>
+        <v>8.4737317999999995</v>
       </c>
       <c r="H363">
-        <v>47.393727200000001</v>
+        <v>47.396003499999999</v>
       </c>
       <c r="I363">
-        <v>1194.54</v>
+        <v>228.61</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -12944,13 +12944,13 @@
         <v>47.389309060000002</v>
       </c>
       <c r="G378">
-        <v>8.4726982999999993</v>
+        <v>8.4726941</v>
       </c>
       <c r="H378">
-        <v>47.389225000000003</v>
+        <v>47.389217500000001</v>
       </c>
       <c r="I378">
-        <v>39.229999999999997</v>
+        <v>39.89</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -13147,13 +13147,13 @@
         <v>47.406174290000003</v>
       </c>
       <c r="G385">
-        <v>8.5285946999999993</v>
+        <v>8.4772829999999999</v>
       </c>
       <c r="H385">
-        <v>47.554098500000002</v>
+        <v>47.405259899999997</v>
       </c>
       <c r="I385">
-        <v>17376.41</v>
+        <v>399.37</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -13524,13 +13524,13 @@
         <v>47.388495749999997</v>
       </c>
       <c r="G398">
-        <v>8.4747689000000008</v>
+        <v>8.4839000000000002</v>
       </c>
       <c r="H398">
-        <v>47.388498200000001</v>
+        <v>47.386800000000001</v>
       </c>
       <c r="I398">
-        <v>1.87</v>
+        <v>1030.82</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -13640,13 +13640,13 @@
         <v>47.396923770000001</v>
       </c>
       <c r="G402">
-        <v>8.4821515000000005</v>
+        <v>8.4737317999999995</v>
       </c>
       <c r="H402">
-        <v>47.393727200000001</v>
+        <v>47.396003499999999</v>
       </c>
       <c r="I402">
-        <v>869.24</v>
+        <v>174.07</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -13727,13 +13727,13 @@
         <v>47.406706700000001</v>
       </c>
       <c r="G405">
-        <v>8.5133551000000001</v>
+        <v>8.4656719000000002</v>
       </c>
       <c r="H405">
-        <v>47.3977358</v>
+        <v>47.409037300000001</v>
       </c>
       <c r="I405">
-        <v>4326.32</v>
+        <v>1121.25</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -13785,13 +13785,13 @@
         <v>47.413746519999997</v>
       </c>
       <c r="G407">
-        <v>8.6478885000000005</v>
+        <v>8.4752966999999995</v>
       </c>
       <c r="H407">
-        <v>47.4455028</v>
+        <v>47.413774699999998</v>
       </c>
       <c r="I407">
-        <v>19510.919999999998</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -13814,13 +13814,13 @@
         <v>47.381121389999997</v>
       </c>
       <c r="G408">
-        <v>8.6998452000000004</v>
+        <v>8.4760960999999995</v>
       </c>
       <c r="H408">
-        <v>47.495787800000002</v>
+        <v>47.384140000000002</v>
       </c>
       <c r="I408">
-        <v>27922.799999999999</v>
+        <v>333.03</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -14249,13 +14249,13 @@
         <v>47.392354689999998</v>
       </c>
       <c r="G423">
-        <v>8.5068272999999994</v>
+        <v>8.4757265999999998</v>
       </c>
       <c r="H423">
-        <v>47.379781800000003</v>
+        <v>47.392366000000003</v>
       </c>
       <c r="I423">
-        <v>3725.82</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -14336,13 +14336,13 @@
         <v>47.405815099999998</v>
       </c>
       <c r="G426">
-        <v>8.6149327000000007</v>
+        <v>8.4656719000000002</v>
       </c>
       <c r="H426">
-        <v>47.489522399999998</v>
+        <v>47.409037300000001</v>
       </c>
       <c r="I426">
-        <v>17928.75</v>
+        <v>1268.8800000000001</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -14365,13 +14365,13 @@
         <v>47.406825339999997</v>
       </c>
       <c r="G427">
-        <v>8.8038872000000001</v>
+        <v>8.4759571000000005</v>
       </c>
       <c r="H427">
-        <v>47.320065999999997</v>
+        <v>47.406789799999999</v>
       </c>
       <c r="I427">
-        <v>37710.43</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -14394,13 +14394,13 @@
         <v>47.406844049999997</v>
       </c>
       <c r="G428">
-        <v>8.8044075999999993</v>
+        <v>8.4763736000000005</v>
       </c>
       <c r="H428">
-        <v>47.319718700000003</v>
+        <v>47.406853099999999</v>
       </c>
       <c r="I428">
-        <v>37732.58</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -14481,13 +14481,13 @@
         <v>47.413653179999997</v>
       </c>
       <c r="G431">
-        <v>8.4814497000000006</v>
+        <v>8.4763325999999992</v>
       </c>
       <c r="H431">
-        <v>47.4193949</v>
+        <v>47.413657899999997</v>
       </c>
       <c r="I431">
-        <v>849.98</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -14568,13 +14568,13 @@
         <v>47.381058039999999</v>
       </c>
       <c r="G434">
-        <v>8.7019202</v>
+        <v>8.4773805000000007</v>
       </c>
       <c r="H434">
-        <v>47.494694299999999</v>
+        <v>47.381063500000003</v>
       </c>
       <c r="I434">
-        <v>27930.25</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -14742,13 +14742,13 @@
         <v>47.385767090000002</v>
       </c>
       <c r="G440">
-        <v>8.6233372999999993</v>
+        <v>8.4775372000000004</v>
       </c>
       <c r="H440">
-        <v>47.4062439</v>
+        <v>47.385764100000003</v>
       </c>
       <c r="I440">
-        <v>16372.17</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -14800,13 +14800,13 @@
         <v>47.387413029999998</v>
       </c>
       <c r="G442">
-        <v>8.4860936999999996</v>
+        <v>8.4772517999999994</v>
       </c>
       <c r="H442">
-        <v>47.384695999999998</v>
+        <v>47.387407500000002</v>
       </c>
       <c r="I442">
-        <v>1030.99</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -15090,13 +15090,13 @@
         <v>47.390553500000003</v>
       </c>
       <c r="G452">
-        <v>8.4771190000000001</v>
+        <v>8.4775483000000005</v>
       </c>
       <c r="H452">
-        <v>47.389965199999999</v>
+        <v>47.390550400000002</v>
       </c>
       <c r="I452">
-        <v>76.510000000000005</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -15177,13 +15177,13 @@
         <v>47.390649230000001</v>
       </c>
       <c r="G455">
-        <v>8.4771190000000001</v>
+        <v>8.4778143000000004</v>
       </c>
       <c r="H455">
-        <v>47.389965199999999</v>
+        <v>47.3906086</v>
       </c>
       <c r="I455">
-        <v>108.88</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -15235,13 +15235,13 @@
         <v>47.391394679999998</v>
       </c>
       <c r="G457">
-        <v>8.4825178000000001</v>
+        <v>8.4997927000000004</v>
       </c>
       <c r="H457">
-        <v>47.389199300000001</v>
+        <v>47.383152000000003</v>
       </c>
       <c r="I457">
-        <v>554</v>
+        <v>2584.38</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -15409,13 +15409,13 @@
         <v>47.383225840000001</v>
       </c>
       <c r="G463">
-        <v>8.4782126000000009</v>
+        <v>8.4773067999999991</v>
       </c>
       <c r="H463">
-        <v>47.383282000000001</v>
+        <v>47.383732799999997</v>
       </c>
       <c r="I463">
-        <v>10.47</v>
+        <v>122.62</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -15699,13 +15699,13 @@
         <v>47.389885339999999</v>
       </c>
       <c r="G473">
-        <v>8.4787376999999999</v>
+        <v>8.4788005999999996</v>
       </c>
       <c r="H473">
-        <v>47.390049900000001</v>
+        <v>47.389880599999998</v>
       </c>
       <c r="I473">
-        <v>19.77</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -15786,13 +15786,13 @@
         <v>47.39270123</v>
       </c>
       <c r="G476">
-        <v>8.4790273999999997</v>
+        <v>8.4839000000000002</v>
       </c>
       <c r="H476">
-        <v>47.392693299999998</v>
+        <v>47.386800000000001</v>
       </c>
       <c r="I476">
-        <v>5.33</v>
+        <v>849.09</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -16047,13 +16047,13 @@
         <v>47.374319700000001</v>
       </c>
       <c r="G485">
-        <v>8.5500000000000007</v>
+        <v>8.4800429000000008</v>
       </c>
       <c r="H485">
-        <v>47.366669999999999</v>
+        <v>47.374316800000003</v>
       </c>
       <c r="I485">
-        <v>7827.1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -16076,13 +16076,13 @@
         <v>47.374620630000003</v>
       </c>
       <c r="G486">
-        <v>8.4798554999999993</v>
+        <v>8.4870000000000001</v>
       </c>
       <c r="H486">
-        <v>47.3746218</v>
+        <v>47.373899999999999</v>
       </c>
       <c r="I486">
-        <v>0.46</v>
+        <v>798.18</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -16975,13 +16975,13 @@
         <v>47.39169553</v>
       </c>
       <c r="G517">
-        <v>8.4804318999999992</v>
+        <v>8.5149422000000001</v>
       </c>
       <c r="H517">
-        <v>47.391713899999999</v>
+        <v>47.383026299999997</v>
       </c>
       <c r="I517">
-        <v>3.47</v>
+        <v>3952.53</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
@@ -17033,13 +17033,13 @@
         <v>47.40449169</v>
       </c>
       <c r="G519">
-        <v>8.4810020000000002</v>
+        <v>8.4808225000000004</v>
       </c>
       <c r="H519">
-        <v>47.404826700000001</v>
+        <v>47.404495300000001</v>
       </c>
       <c r="I519">
-        <v>40.93</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -17236,13 +17236,13 @@
         <v>47.374763870000002</v>
       </c>
       <c r="G526">
-        <v>8.4639900000000008</v>
+        <v>8.4811347999999995</v>
       </c>
       <c r="H526">
-        <v>47.247790000000002</v>
+        <v>47.374772999999998</v>
       </c>
       <c r="I526">
-        <v>14098.76</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -17294,13 +17294,13 @@
         <v>47.376052629999997</v>
       </c>
       <c r="G528">
-        <v>8.4809234999999994</v>
+        <v>8.4817508000000004</v>
       </c>
       <c r="H528">
-        <v>47.376066600000001</v>
+        <v>47.374868499999998</v>
       </c>
       <c r="I528">
-        <v>1.61</v>
+        <v>159.77000000000001</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
@@ -17613,13 +17613,13 @@
         <v>47.381219860000002</v>
       </c>
       <c r="G539">
-        <v>8.4810888000000002</v>
+        <v>8.4808739000000006</v>
       </c>
       <c r="H539">
-        <v>47.3808273</v>
+        <v>47.381219199999997</v>
       </c>
       <c r="I539">
-        <v>47.94</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -17700,13 +17700,13 @@
         <v>47.381416469999998</v>
       </c>
       <c r="G542">
-        <v>8.4810382000000004</v>
+        <v>8.4814153999999995</v>
       </c>
       <c r="H542">
-        <v>47.381981199999998</v>
+        <v>47.381419600000001</v>
       </c>
       <c r="I542">
-        <v>74.91</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -17845,13 +17845,13 @@
         <v>47.385676549999999</v>
       </c>
       <c r="G547">
-        <v>8.4069310000000002</v>
+        <v>8.7027903000000002</v>
       </c>
       <c r="H547">
-        <v>47.393490100000001</v>
+        <v>47.494115999999998</v>
       </c>
       <c r="I547">
-        <v>8238.07</v>
+        <v>27442.36</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -18164,13 +18164,13 @@
         <v>47.388475390000004</v>
       </c>
       <c r="G558">
-        <v>8.3938313999999998</v>
+        <v>8.4816871000000003</v>
       </c>
       <c r="H558">
-        <v>47.501823299999998</v>
+        <v>47.388466899999997</v>
       </c>
       <c r="I558">
-        <v>15842.86</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -18715,13 +18715,13 @@
         <v>47.412665449999999</v>
       </c>
       <c r="G577">
-        <v>8.4819498000000006</v>
+        <v>8.4817551000000009</v>
       </c>
       <c r="H577">
-        <v>47.412935400000002</v>
+        <v>47.412664700000001</v>
       </c>
       <c r="I577">
-        <v>36.409999999999997</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
@@ -18860,13 +18860,13 @@
         <v>47.374938800000002</v>
       </c>
       <c r="G582">
-        <v>8.4731231999999999</v>
+        <v>8.4819476999999992</v>
       </c>
       <c r="H582">
-        <v>47.3820689</v>
+        <v>47.374937000000003</v>
       </c>
       <c r="I582">
-        <v>1256.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -18976,13 +18976,13 @@
         <v>47.376914929999998</v>
       </c>
       <c r="G586">
-        <v>8.4820484</v>
+        <v>8.4823328999999994</v>
       </c>
       <c r="H586">
-        <v>47.377327800000003</v>
+        <v>47.376940400000002</v>
       </c>
       <c r="I586">
-        <v>52.63</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -19034,13 +19034,13 @@
         <v>47.378173740000001</v>
       </c>
       <c r="G588">
-        <v>8.4820393999999997</v>
+        <v>8.4823921000000002</v>
       </c>
       <c r="H588">
-        <v>47.377319100000001</v>
+        <v>47.377857400000003</v>
       </c>
       <c r="I588">
-        <v>94.3</v>
+        <v>47.29</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -19237,13 +19237,13 @@
         <v>47.381257439999999</v>
       </c>
       <c r="G595">
-        <v>8.4793470000000006</v>
+        <v>8.4824672000000003</v>
       </c>
       <c r="H595">
-        <v>47.379272399999998</v>
+        <v>47.381246099999998</v>
       </c>
       <c r="I595">
-        <v>411.75</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -19440,13 +19440,13 @@
         <v>47.382649030000003</v>
       </c>
       <c r="G602">
-        <v>8.4819238000000006</v>
+        <v>8.4829678000000008</v>
       </c>
       <c r="H602">
-        <v>47.383341299999998</v>
+        <v>47.382638</v>
       </c>
       <c r="I602">
-        <v>127.27</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -19672,13 +19672,13 @@
         <v>47.387921810000002</v>
       </c>
       <c r="G610">
-        <v>8.4770970000000005</v>
+        <v>8.4823053000000002</v>
       </c>
       <c r="H610">
-        <v>47.389900099999998</v>
+        <v>47.387887499999998</v>
       </c>
       <c r="I610">
-        <v>619.82000000000005</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
@@ -20049,13 +20049,13 @@
         <v>47.406429719999998</v>
       </c>
       <c r="G623">
-        <v>8.4823567999999998</v>
+        <v>8.4851661000000007</v>
       </c>
       <c r="H623">
-        <v>47.406426699999997</v>
+        <v>47.405888400000002</v>
       </c>
       <c r="I623">
-        <v>1.61</v>
+        <v>316.55</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
@@ -20252,13 +20252,13 @@
         <v>47.413464900000001</v>
       </c>
       <c r="G630">
-        <v>8.4836457000000003</v>
+        <v>8.4823685999999991</v>
       </c>
       <c r="H630">
-        <v>47.412496500000003</v>
+        <v>47.413386699999997</v>
       </c>
       <c r="I630">
-        <v>175.89</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
@@ -21209,13 +21209,13 @@
         <v>47.38872576</v>
       </c>
       <c r="G663">
-        <v>8.4840414000000006</v>
+        <v>8.4839000000000002</v>
       </c>
       <c r="H663">
-        <v>47.388750700000003</v>
+        <v>47.386800000000001</v>
       </c>
       <c r="I663">
-        <v>4.6500000000000004</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
@@ -21238,13 +21238,13 @@
         <v>47.389116610000002</v>
       </c>
       <c r="G664">
-        <v>8.5140952999999993</v>
+        <v>8.4874448999999998</v>
       </c>
       <c r="H664">
-        <v>47.376547700000003</v>
+        <v>47.387414300000003</v>
       </c>
       <c r="I664">
-        <v>3617.63</v>
+        <v>422.43</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
@@ -21383,13 +21383,13 @@
         <v>47.39084373</v>
       </c>
       <c r="G669">
-        <v>8.4835627999999996</v>
+        <v>8.4836766000000008</v>
       </c>
       <c r="H669">
-        <v>47.391137800000003</v>
+        <v>47.390824500000001</v>
       </c>
       <c r="I669">
-        <v>32.53</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
@@ -21528,13 +21528,13 @@
         <v>47.403159379999998</v>
       </c>
       <c r="G674">
-        <v>8.4878003999999994</v>
+        <v>8.4937293</v>
       </c>
       <c r="H674">
-        <v>47.401268000000002</v>
+        <v>47.400012500000003</v>
       </c>
       <c r="I674">
-        <v>490.08</v>
+        <v>1156.23</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
@@ -21615,13 +21615,13 @@
         <v>47.407475740000002</v>
       </c>
       <c r="G677">
-        <v>8.4837848000000005</v>
+        <v>8.4844006000000007</v>
       </c>
       <c r="H677">
-        <v>47.4062433</v>
+        <v>47.407375199999997</v>
       </c>
       <c r="I677">
-        <v>153.97</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
@@ -21847,13 +21847,13 @@
         <v>47.37282699</v>
       </c>
       <c r="G685">
-        <v>8.4853331999999995</v>
+        <v>8.4850405999999996</v>
       </c>
       <c r="H685">
-        <v>47.371199599999997</v>
+        <v>47.372839800000001</v>
       </c>
       <c r="I685">
-        <v>182.12</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
@@ -21992,13 +21992,13 @@
         <v>47.374780190000003</v>
       </c>
       <c r="G690">
-        <v>8.6846078000000002</v>
+        <v>8.4843165999999997</v>
       </c>
       <c r="H690">
-        <v>47.406834600000003</v>
+        <v>47.374777000000002</v>
       </c>
       <c r="I690">
-        <v>22555.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
@@ -22021,13 +22021,13 @@
         <v>47.37498849</v>
       </c>
       <c r="G691">
-        <v>8.4792356000000009</v>
+        <v>8.4907821000000006</v>
       </c>
       <c r="H691">
-        <v>47.3728069</v>
+        <v>47.376954300000001</v>
       </c>
       <c r="I691">
-        <v>637.08000000000004</v>
+        <v>727.08</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
@@ -22224,13 +22224,13 @@
         <v>47.381727849999997</v>
       </c>
       <c r="G698">
-        <v>8.4845583999999992</v>
+        <v>8.4844773999999994</v>
       </c>
       <c r="H698">
-        <v>47.381904900000002</v>
+        <v>47.381738900000002</v>
       </c>
       <c r="I698">
-        <v>20.66</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
@@ -22717,13 +22717,13 @@
         <v>47.388413880000002</v>
       </c>
       <c r="G715">
-        <v>8.4857376000000002</v>
+        <v>8.4853056999999996</v>
       </c>
       <c r="H715">
-        <v>47.388661999999997</v>
+        <v>47.388407999999998</v>
       </c>
       <c r="I715">
-        <v>56.44</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
@@ -23268,13 +23268,13 @@
         <v>47.406294279999997</v>
       </c>
       <c r="G734">
-        <v>8.4841227000000003</v>
+        <v>8.4850779000000003</v>
       </c>
       <c r="H734">
-        <v>47.406605599999999</v>
+        <v>47.406316099999998</v>
       </c>
       <c r="I734">
-        <v>110.81</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.2">
@@ -23442,13 +23442,13 @@
         <v>47.410930579999999</v>
       </c>
       <c r="G740">
-        <v>8.4897615000000002</v>
+        <v>8.4965962000000008</v>
       </c>
       <c r="H740">
-        <v>47.407620399999999</v>
+        <v>47.403829399999999</v>
       </c>
       <c r="I740">
-        <v>552.17999999999995</v>
+        <v>1411.24</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.2">
@@ -23500,13 +23500,13 @@
         <v>47.37099912</v>
       </c>
       <c r="G742">
-        <v>8.4894891999999995</v>
+        <v>8.4924105999999995</v>
       </c>
       <c r="H742">
-        <v>47.368997399999998</v>
+        <v>47.368223800000003</v>
       </c>
       <c r="I742">
-        <v>457.51</v>
+        <v>787.56</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.2">
@@ -23790,13 +23790,13 @@
         <v>47.376862969999998</v>
       </c>
       <c r="G752">
-        <v>8.4857685000000007</v>
+        <v>8.4857481999999997</v>
       </c>
       <c r="H752">
-        <v>47.376122500000001</v>
+        <v>47.376845299999999</v>
       </c>
       <c r="I752">
-        <v>81.55</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.2">
@@ -24544,13 +24544,13 @@
         <v>47.39407207</v>
       </c>
       <c r="G778">
-        <v>8.4868637000000007</v>
+        <v>8.4867673000000003</v>
       </c>
       <c r="H778">
-        <v>47.3942592</v>
+        <v>47.393747400000002</v>
       </c>
       <c r="I778">
-        <v>57.28</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -24602,13 +24602,13 @@
         <v>47.396332200000003</v>
       </c>
       <c r="G780">
-        <v>8.4865224000000001</v>
+        <v>8.4865604999999995</v>
       </c>
       <c r="H780">
-        <v>47.396144999999997</v>
+        <v>47.396205899999998</v>
       </c>
       <c r="I780">
-        <v>25.07</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
@@ -24950,13 +24950,13 @@
         <v>47.406997869999998</v>
       </c>
       <c r="G792">
-        <v>8.4880595000000003</v>
+        <v>8.4968974999999993</v>
       </c>
       <c r="H792">
-        <v>47.406679099999998</v>
+        <v>47.403631500000003</v>
       </c>
       <c r="I792">
-        <v>136.63</v>
+        <v>1174.99</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.2">
@@ -25153,13 +25153,13 @@
         <v>47.410613290000001</v>
       </c>
       <c r="G799">
-        <v>8.4897615000000002</v>
+        <v>8.4965962000000008</v>
       </c>
       <c r="H799">
-        <v>47.407620399999999</v>
+        <v>47.403829399999999</v>
       </c>
       <c r="I799">
-        <v>501.8</v>
+        <v>1361.64</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.2">
@@ -25182,13 +25182,13 @@
         <v>47.410191789999999</v>
       </c>
       <c r="G800">
-        <v>8.4897615000000002</v>
+        <v>8.4965962000000008</v>
       </c>
       <c r="H800">
-        <v>47.407620399999999</v>
+        <v>47.403829399999999</v>
       </c>
       <c r="I800">
-        <v>430.79</v>
+        <v>1291.27</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.2">
@@ -25211,13 +25211,13 @@
         <v>47.410037950000003</v>
       </c>
       <c r="G801">
-        <v>8.4897615000000002</v>
+        <v>8.4965962000000008</v>
       </c>
       <c r="H801">
-        <v>47.407620399999999</v>
+        <v>47.403829399999999</v>
       </c>
       <c r="I801">
-        <v>395.79</v>
+        <v>1255.3900000000001</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.2">
@@ -25356,13 +25356,13 @@
         <v>47.371617530000002</v>
       </c>
       <c r="G806">
-        <v>8.4867401000000005</v>
+        <v>8.4865914</v>
       </c>
       <c r="H806">
-        <v>47.370702999999999</v>
+        <v>47.371636299999999</v>
       </c>
       <c r="I806">
-        <v>101.87</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.2">
@@ -25965,13 +25965,13 @@
         <v>47.39158492</v>
       </c>
       <c r="G827">
-        <v>8.5157345000000007</v>
+        <v>8.5140170000000008</v>
       </c>
       <c r="H827">
-        <v>47.3823431</v>
+        <v>47.383081699999998</v>
       </c>
       <c r="I827">
-        <v>3255.93</v>
+        <v>3049.12</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.2">
@@ -26574,13 +26574,13 @@
         <v>47.37135318</v>
       </c>
       <c r="G848">
-        <v>8.4881007999999998</v>
+        <v>8.4879399000000006</v>
       </c>
       <c r="H848">
-        <v>47.371241499999996</v>
+        <v>47.371369299999998</v>
       </c>
       <c r="I848">
-        <v>21.28</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.2">
@@ -27386,13 +27386,13 @@
         <v>47.386593959999999</v>
       </c>
       <c r="G876">
-        <v>8.4890773999999993</v>
+        <v>8.4893763999999994</v>
       </c>
       <c r="H876">
-        <v>47.3865379</v>
+        <v>47.386563199999998</v>
       </c>
       <c r="I876">
-        <v>31.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.2">
@@ -27618,13 +27618,13 @@
         <v>47.390584509999996</v>
       </c>
       <c r="G884">
-        <v>8.4891916999999992</v>
+        <v>8.4887549</v>
       </c>
       <c r="H884">
-        <v>47.390537399999999</v>
+        <v>47.3906706</v>
       </c>
       <c r="I884">
-        <v>24.9</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.2">
@@ -27647,13 +27647,13 @@
         <v>47.391317190000002</v>
       </c>
       <c r="G885">
-        <v>8.4893332000000008</v>
+        <v>8.4891547000000003</v>
       </c>
       <c r="H885">
-        <v>47.391316699999997</v>
+        <v>47.391305099999997</v>
       </c>
       <c r="I885">
-        <v>3.48</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.2">
@@ -27676,13 +27676,13 @@
         <v>47.39227073</v>
       </c>
       <c r="G886">
-        <v>8.4892470000000007</v>
+        <v>8.4891933000000002</v>
       </c>
       <c r="H886">
-        <v>47.392216099999999</v>
+        <v>47.392265899999998</v>
       </c>
       <c r="I886">
-        <v>6.12</v>
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.2">
@@ -28198,13 +28198,13 @@
         <v>47.369678239999999</v>
       </c>
       <c r="G904">
-        <v>8.4831768000000007</v>
+        <v>8.4899571999999992</v>
       </c>
       <c r="H904">
-        <v>47.374440100000001</v>
+        <v>47.369677799999998</v>
       </c>
       <c r="I904">
-        <v>918.95</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
@@ -28517,13 +28517,13 @@
         <v>47.375652049999999</v>
       </c>
       <c r="G915">
-        <v>8.4909596000000001</v>
+        <v>8.4904124000000003</v>
       </c>
       <c r="H915">
-        <v>47.375761599999997</v>
+        <v>47.375647000000001</v>
       </c>
       <c r="I915">
-        <v>60.8</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
@@ -28923,13 +28923,13 @@
         <v>47.386548939999997</v>
       </c>
       <c r="G929">
-        <v>8.4890773999999993</v>
+        <v>8.4896180999999995</v>
       </c>
       <c r="H929">
-        <v>47.3865379</v>
+        <v>47.386534400000002</v>
       </c>
       <c r="I929">
-        <v>63.39</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
@@ -29039,13 +29039,13 @@
         <v>47.391079120000001</v>
       </c>
       <c r="G933">
-        <v>8.5203085000000005</v>
+        <v>8.5140170000000008</v>
       </c>
       <c r="H933">
-        <v>47.380274700000001</v>
+        <v>47.383081699999998</v>
       </c>
       <c r="I933">
-        <v>3535.13</v>
+        <v>2772.81</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.2">
@@ -29184,13 +29184,13 @@
         <v>47.394779049999997</v>
       </c>
       <c r="G938">
-        <v>8.4904288999999995</v>
+        <v>8.4903122999999994</v>
       </c>
       <c r="H938">
-        <v>47.394772099999997</v>
+        <v>47.394751900000003</v>
       </c>
       <c r="I938">
-        <v>11.14</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
@@ -29271,13 +29271,13 @@
         <v>47.401021299999996</v>
       </c>
       <c r="G941">
-        <v>8.4900412000000003</v>
+        <v>8.4898889999999998</v>
       </c>
       <c r="H941">
-        <v>47.4013007</v>
+        <v>47.4010198</v>
       </c>
       <c r="I941">
-        <v>35.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.2">
@@ -29445,13 +29445,13 @@
         <v>47.403605689999999</v>
       </c>
       <c r="G947">
-        <v>8.4891842999999998</v>
+        <v>8.4902923999999995</v>
       </c>
       <c r="H947">
-        <v>47.403888999999999</v>
+        <v>47.403614500000003</v>
       </c>
       <c r="I947">
-        <v>127.53</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
@@ -30083,13 +30083,13 @@
         <v>47.374933310000003</v>
       </c>
       <c r="G969">
-        <v>8.4885338000000008</v>
+        <v>8.4937258</v>
       </c>
       <c r="H969">
-        <v>47.375653200000002</v>
+        <v>47.374795300000002</v>
       </c>
       <c r="I969">
-        <v>263.3</v>
+        <v>326.75</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
@@ -30460,13 +30460,13 @@
         <v>47.386169090000003</v>
       </c>
       <c r="G982">
-        <v>8.4794885999999998</v>
+        <v>8.4997927000000004</v>
       </c>
       <c r="H982">
-        <v>47.390949200000001</v>
+        <v>47.383152000000003</v>
       </c>
       <c r="I982">
-        <v>1466.54</v>
+        <v>949.32</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
@@ -30518,13 +30518,13 @@
         <v>47.388072520000001</v>
       </c>
       <c r="G984">
-        <v>8.4897132000000006</v>
+        <v>8.4966814999999993</v>
       </c>
       <c r="H984">
-        <v>47.388739800000003</v>
+        <v>47.386396400000002</v>
       </c>
       <c r="I984">
-        <v>255.82</v>
+        <v>561.17999999999995</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.2">
@@ -30547,13 +30547,13 @@
         <v>47.38909555</v>
       </c>
       <c r="G985">
-        <v>8.4886028000000007</v>
+        <v>8.4910268999999996</v>
       </c>
       <c r="H985">
-        <v>47.383260800000002</v>
+        <v>47.389088100000002</v>
       </c>
       <c r="I985">
-        <v>697.04</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.2">
@@ -30576,13 +30576,13 @@
         <v>47.389120640000002</v>
       </c>
       <c r="G986">
-        <v>8.4886028000000007</v>
+        <v>8.4910268999999996</v>
       </c>
       <c r="H986">
-        <v>47.383260800000002</v>
+        <v>47.389088100000002</v>
       </c>
       <c r="I986">
-        <v>700.47</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.2">
@@ -30634,13 +30634,13 @@
         <v>47.391535849999997</v>
       </c>
       <c r="G988">
-        <v>8.4898406000000008</v>
+        <v>8.4916014000000004</v>
       </c>
       <c r="H988">
-        <v>47.392647199999999</v>
+        <v>47.391563900000001</v>
       </c>
       <c r="I988">
-        <v>236.71</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.2">
